--- a/data/case1/18/Plm1_11.xlsx
+++ b/data/case1/18/Plm1_11.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
-    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.14421212747976142</v>
+        <v>-0.14190561823988901</v>
       </c>
       <c r="B1" s="0">
-        <v>0.14381967496898085</v>
+        <v>0.14152518153571236</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.044275729192833069</v>
+        <v>-0.042933838940339086</v>
       </c>
       <c r="B2" s="0">
-        <v>0.043447755714677072</v>
+        <v>0.042115310844884846</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.059489462145283056</v>
+        <v>0.060820778171411405</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.05983774765919847</v>
+        <v>-0.061169144603788084</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.15016225177000919</v>
+        <v>-0.14883085422227538</v>
       </c>
       <c r="B4" s="0">
-        <v>0.14938358763848925</v>
+        <v>0.14806537802238395</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.14338358784510952</v>
+        <v>-0.14206537844988087</v>
       </c>
       <c r="B5" s="0">
-        <v>0.1418304573736755</v>
+        <v>0.14053759460495918</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.081390159209238533</v>
+        <v>-0.079996191090912827</v>
       </c>
       <c r="B6" s="0">
-        <v>0.081289109385169311</v>
+        <v>0.079898379395245911</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.061289109637307604</v>
+        <v>-0.059898379916308642</v>
       </c>
       <c r="B7" s="0">
-        <v>0.061071368408818216</v>
+        <v>0.059690213878500487</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.041071368662937147</v>
+        <v>-0.039690214403655055</v>
       </c>
       <c r="B8" s="0">
-        <v>0.04092879120315196</v>
+        <v>0.039556514777045138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.034928791421121375</v>
+        <v>-0.033556515227848749</v>
       </c>
       <c r="B9" s="0">
-        <v>0.03482119711865117</v>
+        <v>0.033456632029088773</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.028821197338473326</v>
+        <v>-0.027456632483598753</v>
       </c>
       <c r="B10" s="0">
-        <v>0.028808849668131131</v>
+        <v>0.027447723590114492</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.024308849884075556</v>
+        <v>-0.022947724036470163</v>
       </c>
       <c r="B11" s="0">
-        <v>0.024290711625734929</v>
+        <v>0.022932602325088425</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.018290711846059793</v>
+        <v>-0.016932602780587391</v>
       </c>
       <c r="B12" s="0">
-        <v>0.018248627242757554</v>
+        <v>0.01689598190868713</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.012248627464435557</v>
+        <v>-0.010895982366912804</v>
       </c>
       <c r="B13" s="0">
-        <v>0.012241926780899526</v>
+        <v>0.010890742939944076</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0002419270192861589</v>
+        <v>0.0011092565674815091</v>
       </c>
       <c r="B14" s="0">
-        <v>0.00024189243775207814</v>
+        <v>-0.0011093041093301892</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0057581073402364069</v>
+        <v>0.0071093036505009977</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.0057600086953035756</v>
+        <v>-0.0071119447010792314</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015027472153076094</v>
+        <v>-0.015027239118912572</v>
       </c>
       <c r="B16" s="0">
-        <v>0.01500460881887733</v>
+        <v>0.015004364749852783</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090046090416899816</v>
+        <v>-0.0090043652102806959</v>
       </c>
       <c r="B17" s="0">
-        <v>0.008999999768765754</v>
+        <v>0.0089999995222473927</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.08954394599080473</v>
+        <v>-0.088591343039556847</v>
       </c>
       <c r="B18" s="0">
-        <v>0.089431475493071844</v>
+        <v>0.088483086744659545</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.080431475705495359</v>
+        <v>-0.079483087184346157</v>
       </c>
       <c r="B19" s="0">
-        <v>0.079570549222314657</v>
+        <v>0.078644355583938896</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.070570549441110408</v>
+        <v>-0.069644356036526744</v>
       </c>
       <c r="B20" s="0">
-        <v>0.070382351526456333</v>
+        <v>0.06946194753668955</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090044268435072183</v>
+        <v>-0.0090043853708419164</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999997797516329</v>
+        <v>0.0089999995444247638</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093937218073017803</v>
+        <v>-0.093936089457256955</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093627310662153462</v>
+        <v>0.093626877378110152</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084627310877030126</v>
+        <v>-0.084626877822799429</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084125480426229693</v>
+        <v>0.084125289709302109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042125480735003329</v>
+        <v>-0.042125290347230226</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999689620537</v>
+        <v>0.041999999358712792</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.054440298377489427</v>
+        <v>-0.054541403954672774</v>
       </c>
       <c r="B25" s="0">
-        <v>0.054366830045371017</v>
+        <v>0.054469523331597713</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.048366830258466109</v>
+        <v>-0.048469523772297407</v>
       </c>
       <c r="B26" s="0">
-        <v>0.04827926785145209</v>
+        <v>0.048383397534706774</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.042279268065153808</v>
+        <v>-0.042383397976583304</v>
       </c>
       <c r="B27" s="0">
-        <v>0.042002529148343015</v>
+        <v>0.04210684070723314</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.036002529364310476</v>
+        <v>-0.036106841153881852</v>
       </c>
       <c r="B28" s="0">
-        <v>0.035827175424753221</v>
+        <v>0.035931784899128516</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.023827175658585276</v>
+        <v>-0.023931785382570681</v>
       </c>
       <c r="B29" s="0">
-        <v>0.023760808423856972</v>
+        <v>0.023866207393353989</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.0037608086801239615</v>
+        <v>-0.0038662079229783153</v>
       </c>
       <c r="B30" s="0">
-        <v>0.0037269084413869003</v>
+        <v>0.0038320917042473646</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.011273091315858963</v>
+        <v>0.011167907793920406</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.011293293199477361</v>
+        <v>-0.011187581768856703</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060009471626170097</v>
+        <v>-0.006000796485863269</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999997819710771</v>
+        <v>0.00599999954907382</v>
       </c>
     </row>
   </sheetData>
